--- a/wide/synthetic_dataset_13.xlsx
+++ b/wide/synthetic_dataset_13.xlsx
@@ -372,262 +372,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:14">
       <c r="A1" s="1">
-        <v>45931</v>
+        <v>45941</v>
       </c>
       <c r="B1" s="1">
-        <v>45938</v>
+        <v>45948</v>
       </c>
       <c r="C1" s="1">
-        <v>45945</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>45955</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45962</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="1">
-        <v>45966</v>
+        <v>45976</v>
       </c>
       <c r="G1" s="1">
-        <v>45973</v>
+        <v>45983</v>
       </c>
       <c r="H1" s="1">
-        <v>45980</v>
+        <v>45990</v>
       </c>
       <c r="I1" s="1">
-        <v>45987</v>
+        <v>45997</v>
       </c>
       <c r="J1" s="1">
-        <v>45994</v>
+        <v>46004</v>
       </c>
       <c r="K1" s="1">
-        <v>46001</v>
-      </c>
-      <c r="L1" s="2"/>
+        <v>46011</v>
+      </c>
+      <c r="L1" s="1">
+        <v>46018</v>
+      </c>
       <c r="M1" s="1">
-        <v>46015</v>
+        <v>46025</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="1">
-        <v>46029</v>
-      </c>
-      <c r="P1" s="1">
-        <v>46036</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>46043</v>
-      </c>
-      <c r="R1" s="1">
-        <v>46050</v>
-      </c>
-      <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>174</v>
-      </c>
-      <c r="E2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>77</v>
-      </c>
-      <c r="H2">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="I2">
+        <v>62</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>113</v>
+      </c>
+      <c r="L2">
+        <v>166</v>
+      </c>
+      <c r="M2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="D4">
+        <v>107</v>
+      </c>
+      <c r="F4">
+        <v>126</v>
+      </c>
+      <c r="G4">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>132</v>
+      </c>
+      <c r="I4">
+        <v>191</v>
+      </c>
+      <c r="J4">
+        <v>198</v>
+      </c>
+      <c r="K4">
         <v>116</v>
       </c>
-      <c r="J2">
-        <v>130</v>
-      </c>
-      <c r="L2">
-        <v>66</v>
-      </c>
-      <c r="M2">
-        <v>81</v>
-      </c>
-      <c r="N2">
-        <v>83</v>
-      </c>
-      <c r="O2">
-        <v>174</v>
-      </c>
-      <c r="P2">
-        <v>173</v>
-      </c>
-      <c r="S2">
-        <v>117</v>
+      <c r="L4">
+        <v>89</v>
+      </c>
+      <c r="M4">
+        <v>153</v>
+      </c>
+      <c r="N4">
+        <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>126</v>
-      </c>
-      <c r="B4">
-        <v>114</v>
-      </c>
-      <c r="C4">
-        <v>157</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>131</v>
-      </c>
-      <c r="F4">
-        <v>155</v>
-      </c>
-      <c r="G4">
-        <v>70</v>
-      </c>
-      <c r="H4">
-        <v>64</v>
-      </c>
-      <c r="I4">
-        <v>52</v>
-      </c>
-      <c r="L4">
-        <v>114</v>
-      </c>
-      <c r="M4">
-        <v>59</v>
-      </c>
-      <c r="O4">
-        <v>58</v>
-      </c>
-      <c r="P4">
-        <v>51</v>
-      </c>
-      <c r="Q4">
-        <v>54</v>
-      </c>
-      <c r="S4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
